--- a/riassunto.xlsx
+++ b/riassunto.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteofloris/Downloads/comune-giorno/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB35422-202A-6E41-85BA-B752D93C6224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9199C93-0AAB-1C49-AF26-291506212244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1260" windowWidth="27640" windowHeight="16180" xr2:uid="{38F770A8-DD14-9F4C-9E04-59889E6C1CBE}"/>
+    <workbookView xWindow="440" yWindow="1140" windowWidth="27640" windowHeight="16180" xr2:uid="{38F770A8-DD14-9F4C-9E04-59889E6C1CBE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Italia" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sardegna" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sardegna!$A$2:$A$89</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sardegna!$B$2:$B$89</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sardegna!$C$2:$C$89</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sardegna!$A$2:$A$89</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sardegna!$B$2:$B$89</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sardegna!$C$2:$C$89</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Regione</t>
   </si>
@@ -125,7 +135,25 @@
     <t>Totale</t>
   </si>
   <si>
-    <t>tamponi_28_marzo</t>
+    <t>Giorno</t>
+  </si>
+  <si>
+    <t>pre_2020</t>
+  </si>
+  <si>
+    <t>dato_2020</t>
+  </si>
+  <si>
+    <t>Tamponial 28 marzo</t>
+  </si>
+  <si>
+    <t>Emilia Romagna</t>
+  </si>
+  <si>
+    <t>Friuli Venezia Giulia</t>
+  </si>
+  <si>
+    <t>CORRELAZIONE RAPPORTO CASI TEORICI/REALI E temponi effettuati al 28 marzo</t>
   </si>
 </sst>
 </file>
@@ -198,12 +226,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,6 +251,1466 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sardegna!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pre_2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sardegna!$B$2:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66CD-E847-AE59-7FDB81302CC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sardegna!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dato_2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sardegna!$C$2:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66CD-E847-AE59-7FDB81302CC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="742222527"/>
+        <c:axId val="435550543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="742222527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435550543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435550543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742222527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8208E6CF-70FC-184A-ABD0-2B3089D0079E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A304B677-504F-8C4A-AB6D-006B68725318}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +2027,7 @@
     <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -567,7 +2059,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -601,6 +2093,10 @@
         <f>ROUND(H2/G2,2)</f>
         <v>2.99</v>
       </c>
+      <c r="J2">
+        <f>VLOOKUP(A2,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>9884</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -633,6 +2129,10 @@
         <f t="shared" ref="I3:I21" si="2">ROUND(H3/G3,2)</f>
         <v>3.69</v>
       </c>
+      <c r="J3">
+        <f>VLOOKUP(A3,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>25613</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -665,6 +2165,9 @@
         <f t="shared" si="2"/>
         <v>3.02</v>
       </c>
+      <c r="J4">
+        <v>52991</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -697,6 +2200,9 @@
         <f t="shared" si="2"/>
         <v>5.72</v>
       </c>
+      <c r="J5">
+        <v>12723</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -729,6 +2235,10 @@
         <f t="shared" si="2"/>
         <v>4.38</v>
       </c>
+      <c r="J6">
+        <f>VLOOKUP(A6,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>89380</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -761,6 +2271,10 @@
         <f t="shared" si="2"/>
         <v>12.67</v>
       </c>
+      <c r="J7">
+        <f>VLOOKUP(A7,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>27179</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -793,6 +2307,10 @@
         <f t="shared" si="2"/>
         <v>18.989999999999998</v>
       </c>
+      <c r="J8">
+        <f>VLOOKUP(A8,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>10616</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -825,6 +2343,10 @@
         <f t="shared" si="2"/>
         <v>31.89</v>
       </c>
+      <c r="J9">
+        <f>VLOOKUP(A9,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>807</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -857,6 +2379,10 @@
         <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
+      <c r="J10">
+        <f>VLOOKUP(A10,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>8177</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -889,6 +2415,10 @@
         <f t="shared" si="2"/>
         <v>37.92</v>
       </c>
+      <c r="J11">
+        <f>VLOOKUP(A11,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>4225</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -921,6 +2451,10 @@
         <f t="shared" si="2"/>
         <v>5.36</v>
       </c>
+      <c r="J12">
+        <f>VLOOKUP(A12,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>7028</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -953,6 +2487,9 @@
         <f t="shared" si="2"/>
         <v>7.79</v>
       </c>
+      <c r="J13">
+        <v>5561</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -985,6 +2522,10 @@
         <f t="shared" si="2"/>
         <v>4.0599999999999996</v>
       </c>
+      <c r="J14">
+        <f>VLOOKUP(A14,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>21511</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -1017,6 +2558,10 @@
         <f t="shared" si="2"/>
         <v>18.46</v>
       </c>
+      <c r="J15">
+        <f>VLOOKUP(A15,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>13096</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1049,8 +2594,12 @@
         <f t="shared" si="2"/>
         <v>30.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f>VLOOKUP(A16,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1081,8 +2630,12 @@
         <f t="shared" si="2"/>
         <v>9.82</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f>VLOOKUP(A17,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1113,8 +2666,12 @@
         <f t="shared" si="2"/>
         <v>4.93</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f>VLOOKUP(A18,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1145,8 +2702,12 @@
         <f t="shared" si="2"/>
         <v>1.63</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f>VLOOKUP(A19,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1177,8 +2738,12 @@
         <f t="shared" si="2"/>
         <v>2.14</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f>VLOOKUP(A20,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>102503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1209,8 +2774,12 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f>VLOOKUP(A21,Sheet3!$A$1:$B$19,2,FALSE)</f>
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +2812,1183 @@
         <v>32009</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="5">
+        <f>CORREL(I2:I21,J2:J21)</f>
+        <v>-0.36985859831090595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="J25" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7F4855-E843-7D43-A7DF-EACE236F1CAC}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>10616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>52991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>12723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>27179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>102503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>21511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>13096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>25613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>7028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>89380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F8F8DF-8F9C-2841-9683-3CD0A7189D58}">
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>5.2</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>11.4</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>6.6</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>7.6</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>9.4</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>9.6</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>8.4</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>7.4</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>7.4</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>7.4</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>7.2</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>6.6</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>10.6</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>127</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>128</v>
+      </c>
+      <c r="B29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>9.6</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>9.6</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>131</v>
+      </c>
+      <c r="B32">
+        <v>9.6</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>201</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>202</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>203</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>204</v>
+      </c>
+      <c r="B36">
+        <v>8.6</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>205</v>
+      </c>
+      <c r="B37">
+        <v>7.2</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>206</v>
+      </c>
+      <c r="B38">
+        <v>6.8</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>207</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>208</v>
+      </c>
+      <c r="B40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>209</v>
+      </c>
+      <c r="B41">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>210</v>
+      </c>
+      <c r="B42">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>211</v>
+      </c>
+      <c r="B43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>212</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>213</v>
+      </c>
+      <c r="B45">
+        <v>6.6</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>214</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>215</v>
+      </c>
+      <c r="B47">
+        <v>8.4</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>216</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>217</v>
+      </c>
+      <c r="B49">
+        <v>7.4</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>218</v>
+      </c>
+      <c r="B50">
+        <v>8.6</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>219</v>
+      </c>
+      <c r="B51">
+        <v>9.6</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>220</v>
+      </c>
+      <c r="B52">
+        <v>7.6</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>221</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>222</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>223</v>
+      </c>
+      <c r="B55">
+        <v>6.6</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>224</v>
+      </c>
+      <c r="B56">
+        <v>7.4</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>225</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>226</v>
+      </c>
+      <c r="B58">
+        <v>8.6</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>227</v>
+      </c>
+      <c r="B59">
+        <v>9.4</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>228</v>
+      </c>
+      <c r="B60">
+        <v>7.4</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>229</v>
+      </c>
+      <c r="B61">
+        <v>1.6</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>301</v>
+      </c>
+      <c r="B62">
+        <v>8.4</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>302</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>303</v>
+      </c>
+      <c r="B64">
+        <v>8.4</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>304</v>
+      </c>
+      <c r="B65">
+        <v>7.4</v>
+      </c>
+      <c r="C65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>305</v>
+      </c>
+      <c r="B66">
+        <v>7.4</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>306</v>
+      </c>
+      <c r="B67">
+        <v>6.8</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>307</v>
+      </c>
+      <c r="B68">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>308</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>309</v>
+      </c>
+      <c r="B70">
+        <v>5.6</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>310</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>311</v>
+      </c>
+      <c r="B72">
+        <v>7.8</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>312</v>
+      </c>
+      <c r="B73">
+        <v>5.6</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>313</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>314</v>
+      </c>
+      <c r="B75">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>315</v>
+      </c>
+      <c r="B76">
+        <v>5.6</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>316</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>317</v>
+      </c>
+      <c r="B78">
+        <v>5.6</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>318</v>
+      </c>
+      <c r="B79">
+        <v>7.6</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>319</v>
+      </c>
+      <c r="B80">
+        <v>5.8</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>320</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>321</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>322</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>323</v>
+      </c>
+      <c r="B84">
+        <v>7.6</v>
+      </c>
+      <c r="C84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>324</v>
+      </c>
+      <c r="B85">
+        <v>6.8</v>
+      </c>
+      <c r="C85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>325</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>326</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>327</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>328</v>
+      </c>
+      <c r="B89">
+        <v>4.2</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C89">
+    <sortCondition ref="A2:A89"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>